--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_252.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_252.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,358 +488,366 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1393983859134263</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A', 'D', 'E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['D', 'G', 'A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[('0:00:51.315598', '0:01:01.516031')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:32.421428', '0:00:40.304603')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['E:7', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(27.2, 41.84)]</t>
+          <t>[('0:00:26.987959', '0:00:33.059977')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:15', '0:00:20.280000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(87.44, 110.44)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08809523809523809</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A', 'A', 'A/b7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[['B', 'B/7', 'B/6']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[('0:00:36.173061', '0:00:41.861950')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.440395', '0:00:02.746326')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:05.040000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:05.208150', '0:00:14.983242')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:51.920000', '0:01:55.980000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -843,362 +856,312 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.53125</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(10.88, 45.64)]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A'], ['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[('0:00:28.210155', '0:00:42.831033'), ('0:00:26.391305', '0:00:41.205636')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:02:02.780000', '0:02:35.976000'), ('0:03:12.882000', '0:03:47.943000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.3, 14.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(13.72, 22.2)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
